--- a/Assets/Resources/Problem Data.xlsx
+++ b/Assets/Resources/Problem Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OXQuiz" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OXQuiz!$A$1:$E$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OXQuiz!$A$1:$E$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">short_answer!$A$1:$F$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">select_one!$A$1:$I$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">select_multiple!$A$1:$J$12</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1344">
   <si>
     <t>index</t>
   </si>
@@ -3996,6 +3996,120 @@
   </si>
   <si>
     <t>답변 형식235</t>
+  </si>
+  <si>
+    <t>자연수</t>
+  </si>
+  <si>
+    <t>다항식</t>
+  </si>
+  <si>
+    <t>단어</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>순서쌍</t>
+  </si>
+  <si>
+    <t>단항식</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>정수\</t>
+  </si>
+  <si>
+    <t>0으로부터의 (  )</t>
+  </si>
+  <si>
+    <t>분수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(  )도 </t>
+  </si>
+  <si>
+    <t>(   )파이</t>
+  </si>
+  <si>
+    <t>(  ) 파이</t>
+  </si>
+  <si>
+    <t>(   )도</t>
+  </si>
+  <si>
+    <t>(   ) 개</t>
+  </si>
+  <si>
+    <t>몇살</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(  )대 (  ) </t>
+  </si>
+  <si>
+    <t>정수(중근)</t>
+  </si>
+  <si>
+    <t>4의 4제곱</t>
+  </si>
+  <si>
+    <t>(   )의 (   )제곱</t>
+  </si>
+  <si>
+    <t>(   )분</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(   ) 또는 (   ) </t>
+  </si>
+  <si>
+    <t>알파벳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x=(  ) </t>
+  </si>
+  <si>
+    <t>(  ) 절편</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가로:    세로:   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">가로:    , 세로:   </t>
+  </si>
+  <si>
+    <t>같다/다르다</t>
+  </si>
+  <si>
+    <t>부피 또는 입체도형</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무수히 (      ) </t>
+  </si>
+  <si>
+    <t>있다, 없다</t>
+  </si>
+  <si>
+    <t>제(  )사분면</t>
+  </si>
+  <si>
+    <t>어느 사분면</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y축은 몇 개의 사분면에 속해 있는가? </t>
+  </si>
+  <si>
+    <t>0개</t>
+  </si>
+  <si>
+    <t>증가,감소</t>
+  </si>
+  <si>
+    <t>추(  )력</t>
+  </si>
+  <si>
+    <t>(   )선</t>
   </si>
 </sst>
 </file>
@@ -4006,7 +4120,7 @@
     <numFmt numFmtId="64" formatCode="@"/>
     <numFmt numFmtId="65" formatCode="0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -4155,15 +4269,10 @@
     <font>
       <sz val="10.0"/>
       <name val="맑은 고딕"/>
-      <color/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4383,14 +4492,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4508,13 +4611,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -4666,7 +4762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4790,10 +4886,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="64" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4807,12 +4903,6 @@
     </xf>
     <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -5306,11 +5396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78906250" defaultRowHeight="16.500000"/>
@@ -5322,7 +5412,7 @@
     <col min="5" max="5" style="12" width="14.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -5339,7 +5429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -5356,7 +5446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.000000">
+    <row r="3" spans="1:8" ht="30.000000">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -5372,8 +5462,9 @@
       <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.000000">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.000000">
       <c r="A4" s="0">
         <v>3</v>
       </c>
@@ -5387,10 +5478,10 @@
         <v>1020</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.000000">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.000000">
       <c r="A5" s="0">
         <v>4</v>
       </c>
@@ -5404,10 +5495,10 @@
         <v>1021</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="0">
         <v>5</v>
       </c>
@@ -5424,7 +5515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.000000">
+    <row r="7" spans="1:8" ht="30.000000">
       <c r="A7" s="0">
         <v>6</v>
       </c>
@@ -5441,7 +5532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="0">
         <v>7</v>
       </c>
@@ -5458,7 +5549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9" s="0">
         <v>8</v>
       </c>
@@ -5472,10 +5563,10 @@
         <v>1256</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="0">
         <v>9</v>
       </c>
@@ -5492,7 +5583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11" s="0">
         <v>10</v>
       </c>
@@ -5509,7 +5600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12" s="0">
         <v>11</v>
       </c>
@@ -5526,7 +5617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="A13" s="0">
         <v>12</v>
       </c>
@@ -5543,7 +5634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="0">
         <v>13</v>
       </c>
@@ -5560,7 +5651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="0">
         <v>14</v>
       </c>
@@ -5577,7 +5668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" s="0">
         <v>15</v>
       </c>
@@ -5948,7 +6039,7 @@
         <v>1146</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6135,7 +6226,7 @@
         <v>1113</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6152,7 +6243,7 @@
         <v>1114</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6322,7 +6413,7 @@
         <v>1025</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6339,7 +6430,7 @@
         <v>1024</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6356,7 +6447,7 @@
         <v>1026</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6407,7 +6498,7 @@
         <v>1112</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6424,7 +6515,7 @@
         <v>1030</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6594,7 +6685,7 @@
         <v>1111</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6628,7 +6719,7 @@
         <v>143</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6645,7 +6736,7 @@
         <v>146</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6662,7 +6753,7 @@
         <v>147</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6849,7 +6940,7 @@
         <v>153</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -6866,7 +6957,7 @@
         <v>149</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -6883,7 +6974,7 @@
         <v>150</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -7036,7 +7127,7 @@
         <v>1241</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -7053,7 +7144,7 @@
         <v>155</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -7070,7 +7161,7 @@
         <v>156</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -7087,7 +7178,7 @@
         <v>1246</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -7291,7 +7382,7 @@
         <v>1242</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -7308,7 +7399,7 @@
         <v>1226</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -7325,7 +7416,7 @@
         <v>167</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7342,7 +7433,7 @@
         <v>1225</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7359,7 +7450,7 @@
         <v>1227</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -7376,7 +7467,7 @@
         <v>163</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7393,7 +7484,7 @@
         <v>164</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7410,7 +7501,7 @@
         <v>1223</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7444,7 +7535,7 @@
         <v>172</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7461,7 +7552,7 @@
         <v>173</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7478,7 +7569,7 @@
         <v>1126</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7495,7 +7586,7 @@
         <v>1207</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -7529,7 +7620,7 @@
         <v>1208</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -7546,7 +7637,7 @@
         <v>1209</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -7563,7 +7654,7 @@
         <v>1179</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7580,7 +7671,7 @@
         <v>1180</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7597,7 +7688,7 @@
         <v>169</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -7631,7 +7722,7 @@
         <v>158</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -7648,7 +7739,7 @@
         <v>1033</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -7665,7 +7756,7 @@
         <v>1034</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -8039,7 +8130,7 @@
         <v>1240</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -8056,7 +8147,7 @@
         <v>1051</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -8073,7 +8164,7 @@
         <v>1052</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -8090,7 +8181,7 @@
         <v>1067</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -8141,7 +8232,7 @@
         <v>1152</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -8226,7 +8317,7 @@
         <v>175</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -8260,7 +8351,7 @@
         <v>1133</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -8294,7 +8385,7 @@
         <v>1135</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -8311,7 +8402,7 @@
         <v>178</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -8328,7 +8419,7 @@
         <v>179</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -8345,7 +8436,7 @@
         <v>1139</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -8362,7 +8453,7 @@
         <v>1142</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -8396,7 +8487,7 @@
         <v>182</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -8413,7 +8504,7 @@
         <v>1068</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -8430,11 +8521,11 @@
         <v>1069</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E181">
+  <autoFilter ref="A1:E183">
     <sortState ref="A2:E183">
       <sortCondition ref="B2:B180"/>
     </sortState>
@@ -8451,8 +8542,8 @@
   <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78906250" defaultRowHeight="16.500000"/>
@@ -8461,8 +8552,8 @@
     <col min="2" max="2" style="4" width="7.25500011" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="4" width="28.87999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="4" width="78.37999725" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="7" width="23.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="4" width="12.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="7" width="29.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="4" width="15.50500011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="16384" style="4" width="8.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -8503,7 +8594,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.000000">
@@ -8523,7 +8614,7 @@
         <v>558</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>188</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.000000">
@@ -8543,7 +8634,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8563,7 +8654,7 @@
         <v>199</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>193</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8583,7 +8674,7 @@
         <v>202</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8603,7 +8694,7 @@
         <v>205</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>200</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8623,7 +8714,7 @@
         <v>208</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8643,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8663,7 +8754,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8683,7 +8774,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8703,7 +8794,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8723,7 +8814,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8743,7 +8834,7 @@
         <v>561</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8763,7 +8854,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8783,7 +8874,7 @@
         <v>566</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>222</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8803,7 +8894,7 @@
         <v>0.9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8823,7 +8914,7 @@
         <v>1235</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>226</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8843,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8863,7 +8954,7 @@
         <v>576</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>231</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8883,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8903,7 +8994,7 @@
         <v>1089</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>235</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8923,7 +9014,7 @@
         <v>1094</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>237</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8943,7 +9034,7 @@
         <v>1096</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>240</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8963,7 +9054,7 @@
         <v>185</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>242</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8983,7 +9074,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9003,7 +9094,7 @@
         <v>-25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9023,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9043,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9063,7 +9154,7 @@
         <v>-105</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9083,7 +9174,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9103,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9117,13 +9208,13 @@
         <v>999</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>570</v>
+        <v>1339</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>571</v>
+        <v>1340</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>261</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9143,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9163,7 +9254,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9183,7 +9274,7 @@
         <v>108</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9203,7 +9294,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9223,7 +9314,7 @@
         <v>228</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>273</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9243,7 +9334,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9263,7 +9354,7 @@
         <v>18</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9283,7 +9374,7 @@
         <v>2920</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9303,7 +9394,7 @@
         <v>185</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>283</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9323,7 +9414,7 @@
         <v>239</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>286</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -9343,7 +9434,7 @@
         <v>1161</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>290</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -9363,7 +9454,7 @@
         <v>1100</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>292</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -9383,7 +9474,7 @@
         <v>1102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>295</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9403,7 +9494,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -9423,7 +9514,7 @@
         <v>1106</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>301</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9443,7 +9534,7 @@
         <v>257</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>304</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9463,7 +9554,7 @@
         <v>260</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9483,7 +9574,7 @@
         <v>263</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9503,7 +9594,7 @@
         <v>257</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>313</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9523,7 +9614,7 @@
         <v>1195</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>316</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9543,7 +9634,7 @@
         <v>912</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9563,7 +9654,7 @@
         <v>912</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>323</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9583,7 +9674,7 @@
         <v>5</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9603,7 +9694,7 @@
         <v>589</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>329</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9623,7 +9714,7 @@
         <v>275</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>332</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9643,7 +9734,7 @@
         <v>278</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>335</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9663,7 +9754,7 @@
         <v>266</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>338</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9683,7 +9774,7 @@
         <v>592</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>341</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9700,10 +9791,10 @@
         <v>594</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>595</v>
+        <v>1334</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>344</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="33.000000">
@@ -9723,7 +9814,7 @@
         <v>1182</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>347</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9743,7 +9834,7 @@
         <v>1184</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>351</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9763,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>353</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9783,7 +9874,7 @@
         <v>598</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>355</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9803,7 +9894,7 @@
         <v>601</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>357</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9823,7 +9914,7 @@
         <v>598</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>359</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9843,7 +9934,7 @@
         <v>1080</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>361</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9863,7 +9954,7 @@
         <v>1082</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>364</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9883,7 +9974,7 @@
         <v>1085</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>367</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9903,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>369</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9923,7 +10014,7 @@
         <v>581</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>371</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9943,7 +10034,7 @@
         <v>584</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>373</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9963,7 +10054,7 @@
         <v>1116</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>375</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -9983,7 +10074,7 @@
         <v>319</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>377</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -10003,7 +10094,7 @@
         <v>322</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>379</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -10023,7 +10114,7 @@
         <v>325</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>382</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -10043,7 +10134,7 @@
         <v>328</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>385</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -10063,7 +10154,7 @@
         <v>331</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>387</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -10083,7 +10174,7 @@
         <v>334</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>390</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -10103,7 +10194,7 @@
         <v>337</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>393</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -10123,7 +10214,7 @@
         <v>340</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>396</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -10143,7 +10234,7 @@
         <v>343</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>399</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -10163,7 +10254,7 @@
         <v>346</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>401</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10183,7 +10274,7 @@
         <v>289</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>404</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -10203,7 +10294,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>407</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10220,10 +10311,10 @@
         <v>293</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>294</v>
+        <v>1324</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>409</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -10243,7 +10334,7 @@
         <v>297</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>411</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -10263,7 +10354,7 @@
         <v>300</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>414</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -10283,7 +10374,7 @@
         <v>303</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>417</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -10303,7 +10394,7 @@
         <v>306</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>420</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -10323,7 +10414,7 @@
         <v>309</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>422</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10343,7 +10434,7 @@
         <v>312</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>424</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10363,7 +10454,7 @@
         <v>315</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>426</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10383,7 +10474,7 @@
         <v>604</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>428</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10403,7 +10494,7 @@
         <v>607</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>430</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10423,7 +10514,7 @@
         <v>610</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>432</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10443,7 +10534,7 @@
         <v>613</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>434</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10463,7 +10554,7 @@
         <v>0.7</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10483,7 +10574,7 @@
         <v>7</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>439</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10503,7 +10594,7 @@
         <v>5</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>442</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10523,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>445</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10543,7 +10634,7 @@
         <v>285</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>448</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10563,7 +10654,7 @@
         <v>616</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>451</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10583,7 +10674,7 @@
         <v>4</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>453</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10603,7 +10694,7 @@
         <v>2</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>456</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10623,7 +10714,7 @@
         <v>350</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>458</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10643,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>461</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10663,7 +10754,7 @@
         <v>2</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>463</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10683,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>465</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -10703,7 +10794,7 @@
         <v>-8</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>468</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10723,7 +10814,7 @@
         <v>2</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>471</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10743,7 +10834,7 @@
         <v>363</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>474</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -10763,7 +10854,7 @@
         <v>366</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>477</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -10783,7 +10874,7 @@
         <v>-3</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>479</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -10803,7 +10894,7 @@
         <v>120</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>482</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10823,7 +10914,7 @@
         <v>9</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>485</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -10843,7 +10934,7 @@
         <v>60</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>488</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -10863,7 +10954,7 @@
         <v>5</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>490</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10883,7 +10974,7 @@
         <v>15</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>493</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10903,7 +10994,7 @@
         <v>1199</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>496</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -10923,7 +11014,7 @@
         <v>1200</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>499</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10943,7 +11034,7 @@
         <v>1201</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>501</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -10963,7 +11054,7 @@
         <v>1202</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>504</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10983,7 +11074,7 @@
         <v>1203</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>506</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -11003,7 +11094,7 @@
         <v>1204</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>508</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11023,7 +11114,7 @@
         <v>1205</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>511</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -11043,7 +11134,7 @@
         <v>1253</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>514</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11063,7 +11154,7 @@
         <v>643</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>516</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -11083,7 +11174,7 @@
         <v>646</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>519</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11103,7 +11194,7 @@
         <v>1230</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>523</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -11123,7 +11214,7 @@
         <v>1218</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>526</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11143,7 +11234,7 @@
         <v>637</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>529</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -11163,7 +11254,7 @@
         <v>640</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>531</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11183,7 +11274,7 @@
         <v>655</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>533</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -11203,7 +11294,7 @@
         <v>655</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>536</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -11223,7 +11314,7 @@
         <v>168</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>539</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -11243,7 +11334,7 @@
         <v>631</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>541</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -11263,7 +11354,7 @@
         <v>634</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>544</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -11283,7 +11374,7 @@
         <v>823</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>546</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -11303,7 +11394,7 @@
         <v>902</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>548</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -11323,7 +11414,7 @@
         <v>649</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>550</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="49.500000">
@@ -11343,7 +11434,7 @@
         <v>652</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>552</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -11363,7 +11454,7 @@
         <v>1176</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>554</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -11383,7 +11474,7 @@
         <v>1178</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>556</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -11403,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>559</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -11423,7 +11514,7 @@
         <v>1032</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>562</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -11443,7 +11534,7 @@
         <v>24</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>564</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -11463,7 +11554,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>567</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -11483,7 +11574,7 @@
         <v>1041</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>569</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="49.500000">
@@ -11503,7 +11594,7 @@
         <v>48</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>572</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11523,7 +11614,7 @@
         <v>389</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>574</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11543,7 +11634,7 @@
         <v>392</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>577</v>
+        <v>185</v>
       </c>
       <c r="G154" s="5"/>
     </row>
@@ -11564,7 +11655,7 @@
         <v>395</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>579</v>
+        <v>1312</v>
       </c>
       <c r="G155" s="5"/>
     </row>
@@ -11585,9 +11676,8 @@
         <v>398</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="G156" s="4"/>
+        <v>1312</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4">
@@ -11606,9 +11696,8 @@
         <v>80</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="G157" s="4"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4">
@@ -11627,7 +11716,7 @@
         <v>3</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>587</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -11647,7 +11736,7 @@
         <v>413</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>590</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -11667,7 +11756,7 @@
         <v>416</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>593</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="30.000000">
@@ -11687,7 +11776,7 @@
         <v>-2</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>596</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -11707,7 +11796,7 @@
         <v>403</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>599</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -11727,7 +11816,7 @@
         <v>406</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>602</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -11747,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>605</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -11767,7 +11856,7 @@
         <v>196</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>608</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -11787,7 +11876,7 @@
         <v>16</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>611</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -11807,7 +11896,7 @@
         <v>5</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>614</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -11827,7 +11916,7 @@
         <v>-5</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>617</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -11847,7 +11936,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>619</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11867,7 +11956,7 @@
         <v>419</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>621</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -11887,7 +11976,7 @@
         <v>12</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>623</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -11907,7 +11996,7 @@
         <v>15</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>625</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -11927,7 +12016,7 @@
         <v>15</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>627</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -11947,7 +12036,7 @@
         <v>50</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>629</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -11967,7 +12056,7 @@
         <v>17</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>632</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -11987,7 +12076,7 @@
         <v>26</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>635</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12007,7 +12096,7 @@
         <v>5</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>638</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -12027,7 +12116,7 @@
         <v>436</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>641</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -12047,7 +12136,7 @@
         <v>5</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>644</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -12067,7 +12156,7 @@
         <v>441</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>647</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -12087,7 +12176,7 @@
         <v>444</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>650</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -12107,7 +12196,7 @@
         <v>447</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>653</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -12127,7 +12216,7 @@
         <v>450</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>656</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -12147,7 +12236,7 @@
         <v>10</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>658</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -12167,7 +12256,7 @@
         <v>455</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>661</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -12187,7 +12276,7 @@
         <v>4</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>663</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12207,7 +12296,7 @@
         <v>460</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>666</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -12227,7 +12316,7 @@
         <v>12</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>668</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12247,7 +12336,7 @@
         <v>15</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>671</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -12267,7 +12356,7 @@
         <v>467</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>674</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -12287,7 +12376,7 @@
         <v>470</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>1260</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -12307,7 +12396,7 @@
         <v>473</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>1261</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -12327,7 +12416,7 @@
         <v>476</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>1262</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -12347,7 +12436,7 @@
         <v>436</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>1263</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -12367,7 +12456,7 @@
         <v>481</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>1264</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -12387,7 +12476,7 @@
         <v>484</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>1265</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -12407,7 +12496,7 @@
         <v>487</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>1266</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -12427,7 +12516,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>1267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -12447,7 +12536,7 @@
         <v>492</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>1268</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="33.000000">
@@ -12467,7 +12556,7 @@
         <v>495</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>1269</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -12487,7 +12576,7 @@
         <v>498</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>1270</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -12507,7 +12596,7 @@
         <v>12</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>1271</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -12527,7 +12616,7 @@
         <v>503</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>1272</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -12547,7 +12636,7 @@
         <v>96</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>1273</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -12567,7 +12656,7 @@
         <v>400</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>1274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -12587,7 +12676,7 @@
         <v>510</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>1275</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -12607,7 +12696,7 @@
         <v>513</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -12627,7 +12716,7 @@
         <v>10</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>1277</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="33.000000">
@@ -12647,7 +12736,7 @@
         <v>518</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>1278</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -12667,7 +12756,7 @@
         <v>660</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>1279</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -12687,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>1280</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -12707,7 +12796,7 @@
         <v>926</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>1281</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -12727,7 +12816,7 @@
         <v>522</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>1282</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -12747,7 +12836,7 @@
         <v>525</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>1283</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -12767,7 +12856,7 @@
         <v>528</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>1284</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -12787,7 +12876,7 @@
         <v>528</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>1285</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -12807,7 +12896,7 @@
         <v>525</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>1286</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -12827,7 +12916,7 @@
         <v>535</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>1287</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -12847,7 +12936,7 @@
         <v>538</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>1288</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -12867,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>1289</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -12887,7 +12976,7 @@
         <v>543</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>1290</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -12907,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>1291</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -12927,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>1292</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -12947,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>1293</v>
+        <v>185</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -12967,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>1294</v>
+        <v>185</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -12987,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>1295</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -13007,7 +13096,7 @@
         <v>1072</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -13027,7 +13116,7 @@
         <v>180</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>1297</v>
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -13047,7 +13136,7 @@
         <v>1141</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -13067,7 +13156,7 @@
         <v>1145</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -13087,7 +13176,7 @@
         <v>670</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>1300</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -13107,7 +13196,7 @@
         <v>673</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>1301</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -13127,7 +13216,7 @@
         <v>1075</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -13147,7 +13236,7 @@
         <v>1077</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -13167,7 +13256,7 @@
         <v>1191</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -13187,13 +13276,13 @@
         <v>1193</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F223">
     <sortState ref="A2:F236">
-      <sortCondition ref="B2:B233"/>
+      <sortCondition ref="A2:A236"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13208,8 +13297,8 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78906250" defaultRowHeight="16.500000"/>
@@ -16343,8 +16432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -20535,10 +20624,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G243"/>
+  <dimension ref="B2:G202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -21349,111 +21438,6 @@
     <row r="202" spans="3:3">
       <c r="C202" s="18"/>
     </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="0"/>
-    </row>
-    <row r="210" spans="3:3">
-      <c r="C210" s="0"/>
-    </row>
-    <row r="211" spans="3:3">
-      <c r="C211" s="0"/>
-    </row>
-    <row r="212" spans="3:3">
-      <c r="C212" s="0"/>
-    </row>
-    <row r="213" spans="3:3">
-      <c r="C213" s="0"/>
-    </row>
-    <row r="214" spans="3:3">
-      <c r="C214" s="0"/>
-    </row>
-    <row r="215" spans="3:3">
-      <c r="C215" s="0"/>
-    </row>
-    <row r="216" spans="3:3">
-      <c r="C216" s="0"/>
-    </row>
-    <row r="217" spans="3:3">
-      <c r="C217" s="0"/>
-    </row>
-    <row r="218" spans="3:3">
-      <c r="C218" s="0"/>
-    </row>
-    <row r="219" spans="3:3">
-      <c r="C219" s="0"/>
-    </row>
-    <row r="220" spans="3:3">
-      <c r="C220" s="0"/>
-    </row>
-    <row r="221" spans="3:3">
-      <c r="C221" s="0"/>
-    </row>
-    <row r="222" spans="3:3">
-      <c r="C222" s="0"/>
-    </row>
-    <row r="223" spans="3:3">
-      <c r="C223" s="0"/>
-    </row>
-    <row r="224" spans="3:3">
-      <c r="C224" s="0"/>
-    </row>
-    <row r="225" spans="3:3">
-      <c r="C225" s="0"/>
-    </row>
-    <row r="226" spans="3:3">
-      <c r="C226" s="0"/>
-    </row>
-    <row r="227" spans="3:3">
-      <c r="C227" s="0"/>
-    </row>
-    <row r="228" spans="3:3">
-      <c r="C228" s="0"/>
-    </row>
-    <row r="229" spans="3:3">
-      <c r="C229" s="0"/>
-    </row>
-    <row r="230" spans="3:3">
-      <c r="C230" s="0"/>
-    </row>
-    <row r="231" spans="3:3">
-      <c r="C231" s="0"/>
-    </row>
-    <row r="232" spans="3:3">
-      <c r="C232" s="0"/>
-    </row>
-    <row r="233" spans="3:3">
-      <c r="C233" s="0"/>
-    </row>
-    <row r="234" spans="3:3">
-      <c r="C234" s="0"/>
-    </row>
-    <row r="235" spans="3:3">
-      <c r="C235" s="0"/>
-    </row>
-    <row r="236" spans="3:3">
-      <c r="C236" s="0"/>
-    </row>
-    <row r="237" spans="3:3">
-      <c r="C237" s="0"/>
-    </row>
-    <row r="238" spans="3:3">
-      <c r="C238" s="0"/>
-    </row>
-    <row r="239" spans="3:3">
-      <c r="C239" s="0"/>
-    </row>
-    <row r="240" spans="3:3">
-      <c r="C240" s="0"/>
-    </row>
-    <row r="241" spans="3:3">
-      <c r="C241" s="0"/>
-    </row>
-    <row r="242" spans="3:3">
-      <c r="C242" s="0"/>
-    </row>
-    <row r="243" spans="3:3">
-      <c r="C243" s="0"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
